--- a/generated_docs/WR_89719272_WeekEnding_072025.xlsx
+++ b/generated_docs/WR_89719272_WeekEnding_072025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I214"/>
+  <dimension ref="A2:I221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>26219.33</v>
+        <v>27981.8</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -7356,13 +7356,251 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="15" t="inlineStr">
+      <c r="A214" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B214" s="9" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C214" s="9" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D214" s="9" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E214" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F214" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" s="10" t="inlineStr"/>
+      <c r="H214" s="11" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B215" s="12" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C215" s="12" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D215" s="12" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E215" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F215" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="13" t="inlineStr"/>
+      <c r="H215" s="14" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B216" s="9" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C216" s="9" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D216" s="9" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E216" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F216" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" s="10" t="inlineStr"/>
+      <c r="H216" s="11" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="12" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B217" s="12" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C217" s="12" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D217" s="12" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E217" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F217" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" s="13" t="inlineStr"/>
+      <c r="H217" s="14" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B218" s="9" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C218" s="9" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D218" s="9" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E218" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F218" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" s="10" t="inlineStr"/>
+      <c r="H218" s="11" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="12" t="inlineStr">
+        <is>
+          <t>Point 29</t>
+        </is>
+      </c>
+      <c r="B219" s="12" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C219" s="12" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D219" s="12" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E219" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F219" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G219" s="13" t="inlineStr"/>
+      <c r="H219" s="14" t="n">
+        <v>587.49</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B220" s="9" t="inlineStr">
+        <is>
+          <t>SVC-40-TP-ALA-PC</t>
+        </is>
+      </c>
+      <c r="C220" s="9" t="inlineStr">
+        <is>
+          <t>Trans</t>
+        </is>
+      </c>
+      <c r="D220" s="9" t="inlineStr">
+        <is>
+          <t>SVC,4/0,Trip,Alum/Aly Neut,Paral Comm</t>
+        </is>
+      </c>
+      <c r="E220" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F220" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" s="10" t="inlineStr"/>
+      <c r="H220" s="11" t="n">
+        <v>195.83</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H214" s="16" t="n">
-        <v>13756.68</v>
+      <c r="H221" s="16" t="n">
+        <v>15519.15</v>
       </c>
     </row>
   </sheetData>
@@ -7373,11 +7611,11 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A214:G214"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A221:G221"/>
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G11:I11"/>
